--- a/data/trans_dic/P29_R2_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P29_R2_2023-Clase-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.02576976597894511</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0958028832671716</v>
+        <v>0.09580288326717158</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1290153702832322</v>
+        <v>0.1313756219825425</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01616689874700552</v>
+        <v>0.01614468233758692</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0804994233673189</v>
+        <v>0.08217988849258663</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.186270740551341</v>
+        <v>0.1869870593279623</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0386392618790438</v>
+        <v>0.03936425887681176</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1149897165062234</v>
+        <v>0.1141019313264942</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1043681793924605</v>
+        <v>0.1046610871962485</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0398474052711992</v>
+        <v>0.03939692270012747</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07957381725532585</v>
+        <v>0.08065812640030481</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1614267867230668</v>
+        <v>0.1619350379775988</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07623169973031482</v>
+        <v>0.076478097290807</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1142628779898979</v>
+        <v>0.1165891346889154</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1893912212297326</v>
+        <v>0.1893912212297325</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.05511974051634527</v>
+        <v>0.05511974051634526</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1513452404311919</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1548853976114366</v>
+        <v>0.1550585747637984</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03292263969422052</v>
+        <v>0.03411252481090062</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1247037701616602</v>
+        <v>0.1264097227315421</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2279191739747575</v>
+        <v>0.2268966563390347</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08512442055957606</v>
+        <v>0.08913146929079914</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1790615704211394</v>
+        <v>0.1787741101363312</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.1872171002478978</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02513375040684138</v>
+        <v>0.02513375040684139</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.1170977720705618</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1655908702578102</v>
+        <v>0.1649897792217039</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01723395363363973</v>
+        <v>0.01714465896615562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1051347489571352</v>
+        <v>0.1054417272470342</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.210831835007801</v>
+        <v>0.2109359689417168</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03499202873427523</v>
+        <v>0.03471671749567916</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1329290129896784</v>
+        <v>0.1308061882432708</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1530177707062109</v>
+        <v>0.1580332718012287</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02569424710612836</v>
+        <v>0.02532165849370943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08260272636834652</v>
+        <v>0.08300585321670698</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2234216931010721</v>
+        <v>0.2242101689621743</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04630983678591003</v>
+        <v>0.04693638233662618</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1151840105386635</v>
+        <v>0.1142244089899966</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.02144404371821125</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.01976566542188187</v>
+        <v>0.01976566542188188</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.002057752257907377</v>
+        <v>0.002191998376598407</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01465636234707271</v>
+        <v>0.01438261788700658</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01327600476093455</v>
+        <v>0.01359298242533119</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04565760601376423</v>
+        <v>0.04408279432613228</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03094577981206884</v>
+        <v>0.03252902507310718</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02883955356848108</v>
+        <v>0.02886351909289745</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.03167870583419714</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.09585449950281316</v>
+        <v>0.09585449950281318</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1519126172636015</v>
+        <v>0.1510303956106606</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02701198865347386</v>
+        <v>0.02730205457137912</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0896219320322867</v>
+        <v>0.08899494096531155</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1756340759328441</v>
+        <v>0.1768757461844642</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03660248679126905</v>
+        <v>0.03686528006028268</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.103437092283108</v>
+        <v>0.1021509527532591</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>71038</v>
+        <v>72338</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7896</v>
+        <v>7885</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>83641</v>
+        <v>85387</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>102564</v>
+        <v>102958</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18872</v>
+        <v>19226</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>119478</v>
+        <v>118555</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>50432</v>
+        <v>50573</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16803</v>
+        <v>16613</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>72006</v>
+        <v>72987</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>78003</v>
+        <v>78249</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>32146</v>
+        <v>32250</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>103396</v>
+        <v>105501</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>73046</v>
+        <v>73127</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6139</v>
+        <v>6361</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>82065</v>
+        <v>83188</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>107489</v>
+        <v>107007</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15873</v>
+        <v>16620</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>117837</v>
+        <v>117647</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>186671</v>
+        <v>185993</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14813</v>
+        <v>14736</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>208885</v>
+        <v>209495</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>237671</v>
+        <v>237789</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30077</v>
+        <v>29840</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>264108</v>
+        <v>259890</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>86628</v>
+        <v>89467</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>21292</v>
+        <v>20983</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>115214</v>
+        <v>115777</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>126485</v>
+        <v>126932</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>38376</v>
+        <v>38895</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>160659</v>
+        <v>159320</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>12344</v>
+        <v>12114</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>14331</v>
+        <v>14673</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10831</v>
+        <v>10458</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>26064</v>
+        <v>27398</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>31132</v>
+        <v>31158</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>521987</v>
+        <v>518956</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>97973</v>
+        <v>99025</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>633011</v>
+        <v>628582</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>603496</v>
+        <v>607763</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>132758</v>
+        <v>133711</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>730589</v>
+        <v>721505</v>
       </c>
     </row>
     <row r="32">
